--- a/Analyzed/try8/data_2019.xlsx
+++ b/Analyzed/try8/data_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>60.22</v>
       </c>
       <c r="J2">
-        <v>502.4</v>
+        <v>719.2518</v>
       </c>
       <c r="K2">
         <v>1278.487</v>
       </c>
       <c r="L2">
-        <v>516.39</v>
+        <v>844.05335</v>
       </c>
       <c r="M2">
         <v>58.88107148273019</v>
@@ -558,48 +583,63 @@
         <v>-105.21</v>
       </c>
       <c r="P2">
-        <v>625.4301376626422</v>
+        <v>821.8220909336865</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>2</v>
       </c>
       <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>7</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>9</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>6</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>0</v>
       </c>
     </row>
@@ -634,13 +674,13 @@
         <v>61.38</v>
       </c>
       <c r="J3">
-        <v>523.8000000000001</v>
+        <v>818.32577</v>
       </c>
       <c r="K3">
         <v>1492.83</v>
       </c>
       <c r="L3">
-        <v>543.0599999999999</v>
+        <v>933.36565</v>
       </c>
       <c r="M3">
         <v>61.94766842538549</v>
@@ -652,48 +692,63 @@
         <v>-107.92</v>
       </c>
       <c r="P3">
-        <v>521.9156494948745</v>
+        <v>682.8606525529286</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
         <v>5</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
@@ -728,13 +783,13 @@
         <v>55.1</v>
       </c>
       <c r="J4">
-        <v>485.4</v>
+        <v>692.88025</v>
       </c>
       <c r="K4">
         <v>1108.952</v>
       </c>
       <c r="L4">
-        <v>500.43</v>
+        <v>740.78445</v>
       </c>
       <c r="M4">
         <v>71.62074695801972</v>
@@ -746,48 +801,63 @@
         <v>-143.94</v>
       </c>
       <c r="P4">
-        <v>556.1541509707723</v>
+        <v>731.0756103822052</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
         <v>4</v>
       </c>
-      <c r="U4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>3</v>
-      </c>
       <c r="AA4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>2</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>45</v>
       </c>
       <c r="J5">
-        <v>466.6</v>
+        <v>579.38035</v>
       </c>
       <c r="K5">
         <v>1504.575</v>
       </c>
       <c r="L5">
-        <v>493.92</v>
+        <v>677.4138</v>
       </c>
       <c r="M5">
         <v>67.96818581975377</v>
@@ -840,49 +910,64 @@
         <v>-115.76</v>
       </c>
       <c r="P5">
-        <v>545.0819967067698</v>
+        <v>716.5155997394163</v>
       </c>
       <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
       <c r="U5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>56.64</v>
       </c>
       <c r="J6">
-        <v>524.4</v>
+        <v>575.8510200000001</v>
       </c>
       <c r="K6">
         <v>2189.65</v>
       </c>
       <c r="L6">
-        <v>514.71</v>
+        <v>606.5388</v>
       </c>
       <c r="M6">
         <v>80.94135528714013</v>
@@ -934,22 +1019,22 @@
         <v>-157.12</v>
       </c>
       <c r="P6">
-        <v>437.8463609287659</v>
+        <v>571.2723260112705</v>
       </c>
       <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>4</v>
@@ -961,22 +1046,37 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>45.96</v>
       </c>
       <c r="J7">
-        <v>481</v>
+        <v>636.74879</v>
       </c>
       <c r="K7">
         <v>1286.778</v>
       </c>
       <c r="L7">
-        <v>505.47</v>
+        <v>751.1111999999999</v>
       </c>
       <c r="M7">
         <v>59.73704653305886</v>
@@ -1028,37 +1128,37 @@
         <v>-148.87</v>
       </c>
       <c r="P7">
-        <v>502.1082713534448</v>
+        <v>658.3794559142671</v>
       </c>
       <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
       <c r="U7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1067,10 +1167,25 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7">
         <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>34.92</v>
       </c>
       <c r="J8">
-        <v>444</v>
+        <v>455.74204</v>
       </c>
       <c r="K8">
         <v>2024.204</v>
       </c>
       <c r="L8">
-        <v>445.2</v>
+        <v>511.021</v>
       </c>
       <c r="M8">
         <v>85.64043795514759</v>
@@ -1122,48 +1237,63 @@
         <v>-161.64</v>
       </c>
       <c r="P8">
-        <v>439.9978389895421</v>
+        <v>575.6863126702457</v>
       </c>
       <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
         <v>5</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
         <v>6</v>
       </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>3</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>3</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
         <v>2</v>
       </c>
     </row>
@@ -1198,13 +1328,13 @@
         <v>36.44</v>
       </c>
       <c r="J9">
-        <v>484.4</v>
+        <v>598.70848</v>
       </c>
       <c r="K9">
         <v>1434.028</v>
       </c>
       <c r="L9">
-        <v>476.91</v>
+        <v>622.2320999999999</v>
       </c>
       <c r="M9">
         <v>76.49043366674542</v>
@@ -1216,40 +1346,40 @@
         <v>-105.83</v>
       </c>
       <c r="P9">
-        <v>384.8400370769918</v>
+        <v>499.4616051009741</v>
       </c>
       <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
       <c r="U9">
         <v>3</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>6</v>
       </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -1258,7 +1388,22 @@
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>30.62</v>
       </c>
       <c r="J10">
-        <v>446.8</v>
+        <v>505.0637600000001</v>
       </c>
       <c r="K10">
         <v>1677.382</v>
       </c>
       <c r="L10">
-        <v>468.72</v>
+        <v>590.1546</v>
       </c>
       <c r="M10">
         <v>77.20241672092148</v>
@@ -1310,49 +1455,64 @@
         <v>-211.54</v>
       </c>
       <c r="P10">
-        <v>450.5763526863639</v>
+        <v>591.2404203368488</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>5</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>3</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>3</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1386,13 +1546,13 @@
         <v>25.45</v>
       </c>
       <c r="J11">
-        <v>438.2</v>
+        <v>458.58303</v>
       </c>
       <c r="K11">
         <v>1121.255</v>
       </c>
       <c r="L11">
-        <v>427.56</v>
+        <v>517.46135</v>
       </c>
       <c r="M11">
         <v>80.58070865883788</v>
@@ -1404,49 +1564,64 @@
         <v>-219.84</v>
       </c>
       <c r="P11">
-        <v>406.4149544193938</v>
+        <v>529.6289760052642</v>
       </c>
       <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>7</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>4</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
       <c r="Z11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
